--- a/medicine/Médecine vétérinaire/Circovirus/Circovirus.xlsx
+++ b/medicine/Médecine vétérinaire/Circovirus/Circovirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Circovirus est un genre de virus de la famille des Circoviridae. C'est un virus à ADN simple brin (ssDNA).
-Les oiseaux (tels que les pigeons[2] et les canards[3]) et les porcs[4] servent d'hôtes naturels, mais il a été démontré que les chiens peuvent également être infectés[5].
-On dénombre 50 espèces de Circovirus[6] dont certaines sont pathogènes : par exemple, le PCV-1 est non pathogène alors que le PCV-2 provoque le syndrome de dépérissement multisystémique postsevrage (en) (PMWS)[7].
+Les oiseaux (tels que les pigeons et les canards) et les porcs servent d'hôtes naturels, mais il a été démontré que les chiens peuvent également être infectés.
+On dénombre 50 espèces de Circovirus dont certaines sont pathogènes : par exemple, le PCV-1 est non pathogène alors que le PCV-2 provoque le syndrome de dépérissement multisystémique postsevrage (en) (PMWS).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Circovirus porcin</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a deux sérotypes : Type 1 (PCV-1, Porcine Circovirus 1), découvert en 1974, et le Type 2 (PCV-2, Porcine Circovirus 2), découvert en 1997. Ces deux types ont une taille plutôt petite, ils sont non enveloppés, et correspondent à des virus à ADN circulaires qui sont généralement stables dans l'environnement et résistants à de nombreux désinfectants. PCV-2 est associé à la maladie porcine PMWS (postweaning multisystemic wasting syndrome), aussi appelée en français SDPS (syndrome de dépérissement post-sevrage) et surtout MAP (maladie d'amaigrissement du porcelet). Cette maladie[Laquelle ?] entraîne de sérieux problèmes de santé chez les jeunes porcins, avec des signes cliniques tels que la dégradation[Laquelle ?] de la condition physique de l'animal, le grossissement visible des ganglions lymphatiques, difficultés à respirer, et parfois des diarrhées, la peau pâle, et ictère. Cependant, la relation exacte entre PCV-2 et l'infection PMWS reste obscure.
 </t>
@@ -544,7 +558,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Barbel circovirus
@@ -625,10 +641,12 @@
           <t>La structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les virus de Circovirus sont des virus non enveloppés, de géométrie icosaédrique et sphérique, et une symétrie de rang T=1. Le diamètre est d'environ 17 nm. Les génomes sont circulaires et non segmentés[7].
-Les virions des circovirus sont étonnamment petits, avec des diamètres allant de 17 à 22 nm[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les virus de Circovirus sont des virus non enveloppés, de géométrie icosaédrique et sphérique, et une symétrie de rang T=1. Le diamètre est d'environ 17 nm. Les génomes sont circulaires et non segmentés.
+Les virions des circovirus sont étonnamment petits, avec des diamètres allant de 17 à 22 nm.
 </t>
         </is>
       </c>
@@ -657,9 +675,11 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réplication virale est nucléaire. L'entrée dans la cellule hôte se fait par pénétration. La réplication suit le modèle de cercle roulant ssDNA. La transcription basée sur l'ADN, avec un mécanisme d'épissage alternatif, est la méthode de transcription. Le virus quitte la cellule hôte par sortie nucléaire et exportation de pores nucléaires. Les oiseaux et les cochons servent d'hôtes naturels. Les voies de transmission sont féco-orales et parentales[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réplication virale est nucléaire. L'entrée dans la cellule hôte se fait par pénétration. La réplication suit le modèle de cercle roulant ssDNA. La transcription basée sur l'ADN, avec un mécanisme d'épissage alternatif, est la méthode de transcription. Le virus quitte la cellule hôte par sortie nucléaire et exportation de pores nucléaires. Les oiseaux et les cochons servent d'hôtes naturels. Les voies de transmission sont féco-orales et parentales.
 </t>
         </is>
       </c>
